--- a/biology/Zoologie/China_Dinosaurs_Park/China_Dinosaurs_Park.xlsx
+++ b/biology/Zoologie/China_Dinosaurs_Park/China_Dinosaurs_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 China Dinosaurs Park (中华恐龍园 en chinois et également appelé Dinosaur Park Changzhou) est un parc à thème, un parc aquatique, un musée et une division de recherche situé à Changzhou dans la province du Jiangsu en Chine. Disposé en six zones, le thème du parc est les dinosaures. De nombreuses statues de ceux-ci sont disséminées dans China Dinosaurs Park.
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouvert en avril 2001 après deux ans de travaux, le parc a coûté 40 millions de dollars (30 millions d'€). China Dinosaurs Park vit la plus grande extension de son histoire en 2010. En cette année, China Dinosaurs Park inaugure une nouvelle zone incluant dix nouvelles attractions.
-En 2011, China Dinosaurs Park connait, à l'échelle mondiale, la plus grande augmentation de fréquentation, soit 52,2 %. Il passe de 2 300 000 entrées en 2010 à 3 500 000 en cette année. Il entre donc directement à la 11e place du classement des vingt parcs d'attractions les plus visités d'Asie[2].
-Avec 3 400 000 visiteurs en 2012, il est le 13e parc des continents asiatique et océanique en termes de fréquentation[3].
+En 2011, China Dinosaurs Park connait, à l'échelle mondiale, la plus grande augmentation de fréquentation, soit 52,2 %. Il passe de 2 300 000 entrées en 2010 à 3 500 000 en cette année. Il entre donc directement à la 11e place du classement des vingt parcs d'attractions les plus visités d'Asie.
+Avec 3 400 000 visiteurs en 2012, il est le 13e parc des continents asiatique et océanique en termes de fréquentation.
 </t>
         </is>
       </c>
@@ -548,11 +562,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Montagnes russes
+          <t>Montagnes russes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Dinoconda
 			Whirling Dinosaur Car
-Attractions aquatiques
-Autres attractions
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>China_Dinosaurs_Park</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/China_Dinosaurs_Park</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Attractions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres attractions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Fire Dragon Revelry
 			Florid Windmill
 			Spectacle d'otaries
